--- a/downloads/3.Ventas Por País 2.xlsx
+++ b/downloads/3.Ventas Por País 2.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datos\Cursos\Curso Power Tools para auditores I\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Personales\Curso-de-Herramientas-analiticas-para-auditoria-I\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F963D-30AD-4212-94BE-CEB8578F0C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C86F11-BC4E-4E53-BC3F-43B31261C960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35235" yWindow="2025" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{B8F924D1-209B-481F-B627-3237FE097B40}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{B8F924D1-209B-481F-B627-3237FE097B40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Colombia" sheetId="1" r:id="rId1"/>
-    <sheet name="Argentina" sheetId="2" r:id="rId2"/>
-    <sheet name="Perú" sheetId="3" r:id="rId3"/>
-    <sheet name="Chile" sheetId="4" r:id="rId4"/>
+    <sheet name="España" sheetId="1" r:id="rId1"/>
+    <sheet name="Italia" sheetId="2" r:id="rId2"/>
+    <sheet name="Alemania" sheetId="3" r:id="rId3"/>
+    <sheet name="Francia" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Chile!$A$1:$C$679</definedName>
-    <definedName name="Chile">Chile!$A$1:$C$679</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Francia!$A$1:$C$679</definedName>
+    <definedName name="Chile">Francia!$A$1:$C$679</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
